--- a/Certification Tracker Public.xlsx
+++ b/Certification Tracker Public.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23303,7 +23303,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{48B47A3C-B514-944E-868E-A67C3AB75EB5}">
+      <autoFilter ref="B2:S40" xr:uid="{7712AC43-3469-9D4B-817F-CC20EE89BC7F}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
